--- a/Data Definitions.xlsx
+++ b/Data Definitions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brownc1\Documents\OTHER\NC State\ST 558\FINAL PROJECT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11889E90-BFA7-42DD-B826-3A4C35D015E7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E380B7D-2481-4962-B929-FAC09ED81058}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC8FDADD-B2DF-4519-8865-3859D8A1D66B}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
   <si>
     <r>
       <t>​</t>
@@ -65,9 +65,6 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Precinct Portion</t>
-  </si>
-  <si>
     <t>Mailing Label Formatted Info</t>
   </si>
   <si>
@@ -221,39 +218,12 @@
     <t>Voting History*</t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
-    <t>C - Curbside</t>
-  </si>
-  <si>
-    <t>M - Mail</t>
-  </si>
-  <si>
-    <t>O - One Stop Early Voting</t>
-  </si>
-  <si>
-    <t>P - Provisional</t>
-  </si>
-  <si>
-    <t>T - Transfer</t>
-  </si>
-  <si>
-    <t>U - One Stop Early Voting Curbside</t>
-  </si>
-  <si>
-    <t>V - In-Person Election Day</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
     <t>Numeric</t>
   </si>
   <si>
-    <t>*Variables categorized as Voter History repeat for each election date</t>
-  </si>
-  <si>
     <t>Election ID Number (Numbered 1-20)</t>
   </si>
   <si>
@@ -263,9 +233,6 @@
     <t>Party under which ballot cast (Primary Elections)</t>
   </si>
   <si>
-    <t>Methods by which a voter my cast their ballot include:</t>
-  </si>
-  <si>
     <t>Method for casting ballot</t>
   </si>
   <si>
@@ -275,26 +242,44 @@
     <t>Additional Information</t>
   </si>
   <si>
-    <t xml:space="preserve">Possible Values: </t>
-  </si>
-  <si>
-    <t>Elect_Dt_Part</t>
-  </si>
-  <si>
-    <t>Election Date Participation</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 = voted, 0 = registered but did not vote, NA = not registered,  </t>
   </si>
   <si>
-    <t>Partic_Rate</t>
-  </si>
-  <si>
-    <t>Voter Participation Rate</t>
+    <t>NC Prosecutorial District</t>
+  </si>
+  <si>
+    <t>totVotes</t>
+  </si>
+  <si>
+    <t>Overall election date participation count</t>
+  </si>
+  <si>
+    <t>Overall count of elections for which individual was registered to vote</t>
+  </si>
+  <si>
+    <t>totPartic</t>
+  </si>
+  <si>
+    <t>Overall participation rate</t>
+  </si>
+  <si>
+    <t>A = Active, I = Inactive</t>
+  </si>
+  <si>
+    <t>Political Parties: Democratic, Republican, Libertarian, Constitution, Green, Unaffiliated, Other</t>
+  </si>
+  <si>
+    <t>HL = Hispanic/Latino, NL = Hispanic/Latino, UN = Unknown</t>
+  </si>
+  <si>
+    <t>W = White, B = Black/African American, A = Asian, I = American Indian/Alaska Native, M = Multiracial, O = Other, U = Unknown</t>
+  </si>
+  <si>
+    <t>F = Female, M = Male, U = Unkown</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve"># elections voted in/total elections for which voter was registered </t>
+      <t xml:space="preserve">(total election partcipation/total eligible elections)elections voted in/total elections for which voter was registered </t>
     </r>
     <r>
       <rPr>
@@ -308,12 +293,15 @@
       <t>(**See Other Notes on Data)</t>
     </r>
   </si>
+  <si>
+    <t>totElig</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,19 +310,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF4D4D4D"/>
-      <name val="Lato"/>
-    </font>
-    <font>
       <b/>
       <sz val="10.5"/>
       <color rgb="FF4D4D4D"/>
-      <name val="Lato"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
       <name val="Lato"/>
     </font>
     <font>
@@ -346,39 +324,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -386,92 +340,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601E87A4-1282-4444-A7C0-1D43C939D537}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -801,505 +676,490 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E5" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E6" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="10" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="9"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" s="7" customFormat="1">
-      <c r="A9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="3" t="s">
+      <c r="C24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="10" t="s">
+      <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" s="2" customFormat="1">
-      <c r="A30" s="17" t="s">
+      <c r="C31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" s="2" customFormat="1">
-      <c r="A31" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6" s="2" customFormat="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1" t="s">
-        <v>66</v>
-      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
